--- a/output/0/tRNA-Ser-TGA-3-1.xlsx
+++ b/output/0/tRNA-Ser-TGA-3-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>26312829</t>
-  </si>
-  <si>
-    <t>26312852</t>
+    <t>26313362</t>
+  </si>
+  <si>
+    <t>26313385</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>26312849</t>
+    <t>26313382</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,193 +38,187 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>CGGCAGGATTCGAACCTGCG</t>
-  </si>
-  <si>
-    <t>CGG</t>
+    <t>GGTTTCGATCCATCGACCTC</t>
+  </si>
+  <si>
+    <t>TGG</t>
   </si>
   <si>
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>95% (67)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>74</t>
+    <t>11% (32)</t>
+  </si>
+  <si>
+    <t>6% (18)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
   </si>
   <si>
-    <t>26312830</t>
-  </si>
-  <si>
-    <t>26312853</t>
-  </si>
-  <si>
-    <t>26312850</t>
-  </si>
-  <si>
-    <t>GGCAGGATTCGAACCTGCGC</t>
+    <t>26313363</t>
+  </si>
+  <si>
+    <t>26313386</t>
+  </si>
+  <si>
+    <t>26313383</t>
+  </si>
+  <si>
+    <t>GTTTCGATCCATCGACCTCT</t>
   </si>
   <si>
     <t>GGG</t>
   </si>
   <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>12% (24)</t>
+    <t>59% (53)</t>
+  </si>
+  <si>
+    <t>20% (30)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>26313369</t>
+  </si>
+  <si>
+    <t>26313392</t>
+  </si>
+  <si>
+    <t>26313389</t>
+  </si>
+  <si>
+    <t>ATCCATCGACCTCTGGGTTA</t>
+  </si>
+  <si>
+    <t>6% (27)</t>
+  </si>
+  <si>
+    <t>16% (27)</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>26312831</t>
-  </si>
-  <si>
-    <t>26312854</t>
-  </si>
-  <si>
-    <t>26312851</t>
-  </si>
-  <si>
-    <t>GCAGGATTCGAACCTGCGCG</t>
-  </si>
-  <si>
-    <t>94% (66)</t>
-  </si>
-  <si>
-    <t>61% (50)</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>26312843</t>
-  </si>
-  <si>
-    <t>26312866</t>
-  </si>
-  <si>
-    <t>26312863</t>
-  </si>
-  <si>
-    <t>CCTGCGCGGGGAGACCCCAA</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>99% (88)</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>26313370</t>
+  </si>
+  <si>
+    <t>26313393</t>
+  </si>
+  <si>
+    <t>26313390</t>
+  </si>
+  <si>
+    <t>TCCATCGACCTCTGGGTTAT</t>
+  </si>
+  <si>
+    <t>13% (34)</t>
+  </si>
+  <si>
+    <t>31% (36)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>26313371</t>
+  </si>
+  <si>
+    <t>26313394</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>26312846</t>
-  </si>
-  <si>
-    <t>CCATTGGGGTCTCCCCGCGC</t>
+    <t>26313374</t>
+  </si>
+  <si>
+    <t>GCCCATAACCCAGAGGTCGA</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>25% (33)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>26313378</t>
+  </si>
+  <si>
+    <t>26313401</t>
+  </si>
+  <si>
+    <t>26313381</t>
+  </si>
+  <si>
+    <t>GTGCTGGGCCCATAACCCAG</t>
   </si>
   <si>
     <t>AGG</t>
   </si>
   <si>
-    <t>87% (66)</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>26312872</t>
-  </si>
-  <si>
-    <t>26312895</t>
-  </si>
-  <si>
-    <t>26312892</t>
-  </si>
-  <si>
-    <t>AGTCCATCGCCTTAACCACT</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>13% (25)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>26312875</t>
-  </si>
-  <si>
-    <t>26312898</t>
-  </si>
-  <si>
-    <t>26312878</t>
-  </si>
-  <si>
-    <t>TGGCCGAGTGGTTAAGGCGA</t>
-  </si>
-  <si>
-    <t>59% (53)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>26312881</t>
-  </si>
-  <si>
-    <t>26312904</t>
-  </si>
-  <si>
-    <t>26312884</t>
-  </si>
-  <si>
-    <t>TAGTCGTGGCCGAGTGGTTA</t>
-  </si>
-  <si>
-    <t>30% (43)</t>
-  </si>
-  <si>
-    <t>59% (49)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>100% (75)</t>
+  </si>
+  <si>
+    <t>95% (76)</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>26313416</t>
+  </si>
+  <si>
+    <t>26313396</t>
+  </si>
+  <si>
+    <t>TGGCGCAGCGGAAGCGTGCT</t>
+  </si>
+  <si>
+    <t>23% (40)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>26313417</t>
+  </si>
+  <si>
+    <t>26313397</t>
+  </si>
+  <si>
+    <t>GTGGCGCAGCGGAAGCGTGC</t>
+  </si>
+  <si>
+    <t>27% (34)</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -443,7 +437,7 @@
         <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -457,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -469,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -484,25 +478,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -516,22 +510,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -543,25 +537,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -575,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -602,25 +596,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -634,22 +628,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -661,25 +655,25 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -693,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -702,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -723,22 +717,22 @@
         <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
         <v>67</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="s">
         <v>68</v>
-      </c>
-      <c r="P8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>70</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
